--- a/client/public/sample_students.xlsx
+++ b/client/public/sample_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Baburaj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6158AC8F-B9C6-4106-8CFD-C17359D12A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5754BC49-CC9D-44DF-A94A-7BEFAB068112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>college_name</t>
-  </si>
-  <si>
-    <t>department_name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>full_name</t>
   </si>
@@ -37,68 +31,17 @@
     <t>password</t>
   </si>
   <si>
-    <t>ABC College</t>
-  </si>
-  <si>
-    <t>B.Sc Computer Science</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>pass123</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>secure456</t>
-  </si>
-  <si>
-    <t>XYZ University</t>
-  </si>
-  <si>
-    <t>BSc Physics</t>
-  </si>
-  <si>
-    <t>Alice Johnson</t>
-  </si>
-  <si>
-    <t>mypass789</t>
-  </si>
-  <si>
-    <t>Bob Wilson</t>
-  </si>
-  <si>
-    <t>temp123</t>
-  </si>
-  <si>
-    <t>Carol Lee</t>
-  </si>
-  <si>
-    <t>hello456</t>
-  </si>
-  <si>
     <t>21AIB38</t>
   </si>
   <si>
-    <t>21AIB56</t>
-  </si>
-  <si>
-    <t>21AIB57</t>
-  </si>
-  <si>
-    <t>21AIB55</t>
-  </si>
-  <si>
-    <t>21AIB60</t>
+    <t>Sidharth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +172,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -932,22 +881,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -957,99 +904,20 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
+      <c r="C2">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>